--- a/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Id</t>
   </si>
@@ -22,7 +22,13 @@
     <t>ArmorIds</t>
   </si>
   <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,15 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -22,13 +22,91 @@
     <t>ArmorIds</t>
   </si>
   <si>
-    <t>0,1,2</t>
+    <t>0,1,2,16</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>2,3</t>
+    <t>2,3,16</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,4,5,16</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>4,5,6,17</t>
+  </si>
+  <si>
+    <t>4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>5,6,7,17</t>
+  </si>
+  <si>
+    <t>6,7,8,17</t>
+  </si>
+  <si>
+    <t>5,6,7,8,9</t>
+  </si>
+  <si>
+    <t>7,8,9,17</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>8,9,10,18</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>9,10,18</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>12,13,14,15</t>
+  </si>
+  <si>
+    <t>10,11,19</t>
+  </si>
+  <si>
+    <t>14,15,16,17</t>
+  </si>
+  <si>
+    <t>11,12,19</t>
+  </si>
+  <si>
+    <t>17,18,19,20</t>
+  </si>
+  <si>
+    <t>12,20</t>
+  </si>
+  <si>
+    <t>20,21,22,23</t>
+  </si>
+  <si>
+    <t>13,21</t>
+  </si>
+  <si>
+    <t>22,23,24,25</t>
+  </si>
+  <si>
+    <t>14,22</t>
+  </si>
+  <si>
+    <t>26,27</t>
+  </si>
+  <si>
+    <t>23,24</t>
   </si>
 </sst>
 </file>
@@ -43,12 +121,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -57,13 +141,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -85,6 +176,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -115,8 +209,8 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.0</v>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -124,10 +218,10 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.0</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -135,10 +229,10 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -146,10 +240,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -157,10 +251,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -168,10 +262,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -179,10 +273,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -190,10 +284,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -201,10 +295,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.0</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -212,10 +306,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.0</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -223,21 +317,21 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.0</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>12.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.0</v>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -245,10 +339,10 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.0</v>
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -256,11 +350,45 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
@@ -22,19 +22,19 @@
     <t>ArmorIds</t>
   </si>
   <si>
-    <t>0,1,2,16</t>
+    <t>0,1,2,16,24</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>2,3,16</t>
+    <t>2,3,16,23</t>
   </si>
   <si>
     <t>1,2</t>
   </si>
   <si>
-    <t>3,4,5,16</t>
+    <t>3,4,5,16,24</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>

--- a/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/DropTable.xlsx
@@ -34,7 +34,7 @@
     <t>1,2</t>
   </si>
   <si>
-    <t>3,4,5,16,24</t>
+    <t>3,4,5,16,23</t>
   </si>
   <si>
     <t>1,2,3,4,5</t>
